--- a/Example/Excel/Example.xlsx
+++ b/Example/Excel/Example.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1758026D-FEE5-4AAF-98E4-BCDAE10BCF5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-32100" yWindow="495" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,166 +33,166 @@
     <t>int32</t>
   </si>
   <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>double[]</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>name4</t>
+  </si>
+  <si>
+    <t>name5</t>
+  </si>
+  <si>
+    <t>name6</t>
+  </si>
+  <si>
+    <t>name7</t>
+  </si>
+  <si>
+    <t>name8</t>
+  </si>
+  <si>
+    <t>name9</t>
+  </si>
+  <si>
+    <t>name10</t>
+  </si>
+  <si>
+    <t>name11</t>
+  </si>
+  <si>
+    <t>name12</t>
+  </si>
+  <si>
+    <t>name13</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>int32[]</t>
+  </si>
+  <si>
+    <t>int64[]</t>
+  </si>
+  <si>
+    <t>uint32[]</t>
+  </si>
+  <si>
+    <t>uint64[]</t>
+  </si>
+  <si>
+    <t>bool[]</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>name14</t>
+  </si>
+  <si>
+    <t>name15</t>
+  </si>
+  <si>
+    <t>name16</t>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|101</t>
+  </si>
+  <si>
+    <t>1|102</t>
+  </si>
+  <si>
+    <t>1|103</t>
+  </si>
+  <si>
+    <t>1|105</t>
+  </si>
+  <si>
+    <t>2|201</t>
+  </si>
+  <si>
+    <t>2|202</t>
+  </si>
+  <si>
+    <t>2|203</t>
+  </si>
+  <si>
+    <t>2|205</t>
+  </si>
+  <si>
+    <t>1|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello|world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>double</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint64</t>
-  </si>
-  <si>
-    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>double[]</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>name5</t>
-  </si>
-  <si>
-    <t>name6</t>
-  </si>
-  <si>
-    <t>name7</t>
-  </si>
-  <si>
-    <t>name8</t>
-  </si>
-  <si>
-    <t>name9</t>
-  </si>
-  <si>
-    <t>name10</t>
-  </si>
-  <si>
-    <t>name11</t>
-  </si>
-  <si>
-    <t>name12</t>
-  </si>
-  <si>
-    <t>name13</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>int32[]</t>
-  </si>
-  <si>
-    <t>int64[]</t>
-  </si>
-  <si>
-    <t>uint32[]</t>
-  </si>
-  <si>
-    <t>uint64[]</t>
-  </si>
-  <si>
-    <t>bool[]</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>name14</t>
-  </si>
-  <si>
-    <t>name15</t>
-  </si>
-  <si>
-    <t>name16</t>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|101</t>
-  </si>
-  <si>
-    <t>1|102</t>
-  </si>
-  <si>
-    <t>1|103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1|104</t>
-  </si>
-  <si>
-    <t>1|105</t>
-  </si>
-  <si>
-    <t>2|201</t>
-  </si>
-  <si>
-    <t>2|202</t>
-  </si>
-  <si>
-    <t>2|203</t>
-  </si>
-  <si>
-    <t>2|204</t>
-  </si>
-  <si>
-    <t>2|205</t>
-  </si>
-  <si>
-    <t>1|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello|world</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,105 +529,105 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -634,52 +635,52 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
       <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -687,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>9999913</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -708,31 +709,31 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -740,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1231232</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -761,31 +762,31 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>47</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
